--- a/data/TV4.xlsx
+++ b/data/TV4.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>TV4</t>
@@ -32443,7 +32443,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="25" t="n">
-        <v>0.0</v>
+        <v>7.05E7</v>
       </c>
       <c r="K45" s="25" t="n">
         <v>0.0</v>
@@ -32539,7 +32539,7 @@
         <v>0.0</v>
       </c>
       <c r="AP45" s="25" t="n">
-        <v>0.0</v>
+        <v>7.05E7</v>
       </c>
       <c r="AQ45" s="25" t="n">
         <v>0.0</v>
@@ -32845,7 +32845,7 @@
         <v>7.75E7</v>
       </c>
       <c r="I48" s="25" t="n">
-        <v>7.05E7</v>
+        <v>0.0</v>
       </c>
       <c r="K48" s="25" t="n">
         <v>7.0E7</v>
@@ -32941,7 +32941,7 @@
         <v>3.25E7</v>
       </c>
       <c r="AP48" s="25" t="n">
-        <v>7.05E7</v>
+        <v>0.0</v>
       </c>
       <c r="AQ48" s="25" t="n">
         <v>7.05E7</v>

--- a/data/TV4.xlsx
+++ b/data/TV4.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>TV4</t>

--- a/data/TV4.xlsx
+++ b/data/TV4.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>TV4</t>

--- a/data/TV4.xlsx
+++ b/data/TV4.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>TV4</t>
